--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bgn-Tlr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bgn-Tlr2.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>55.26722666666667</v>
+        <v>64.51746766666666</v>
       </c>
       <c r="H2">
-        <v>165.80168</v>
+        <v>193.552403</v>
       </c>
       <c r="I2">
-        <v>0.01597985502890189</v>
+        <v>0.01908790637288361</v>
       </c>
       <c r="J2">
-        <v>0.01623411501809385</v>
+        <v>0.0192326001326142</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.919382</v>
+        <v>2.546648333333333</v>
       </c>
       <c r="N2">
-        <v>2.758146</v>
+        <v>7.639944999999999</v>
       </c>
       <c r="O2">
-        <v>0.005737395776689386</v>
+        <v>0.01458319278139283</v>
       </c>
       <c r="P2">
-        <v>0.005740724152602041</v>
+        <v>0.01462456071422719</v>
       </c>
       <c r="Q2">
-        <v>50.81169338725334</v>
+        <v>164.3033015042039</v>
       </c>
       <c r="R2">
-        <v>457.30524048528</v>
+        <v>1478.729713537835</v>
       </c>
       <c r="S2">
-        <v>9.168275275493036E-05</v>
+        <v>0.0002783626184289384</v>
       </c>
       <c r="T2">
-        <v>9.319557618049088E-05</v>
+        <v>0.0002812683283318701</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>55.26722666666667</v>
+        <v>64.51746766666666</v>
       </c>
       <c r="H3">
-        <v>165.80168</v>
+        <v>193.552403</v>
       </c>
       <c r="I3">
-        <v>0.01597985502890189</v>
+        <v>0.01908790637288361</v>
       </c>
       <c r="J3">
-        <v>0.01623411501809385</v>
+        <v>0.0192326001326142</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>7.593403</v>
       </c>
       <c r="O3">
-        <v>0.01579552289940435</v>
+        <v>0.01449435301115475</v>
       </c>
       <c r="P3">
-        <v>0.01580468619229758</v>
+        <v>0.01453546893349296</v>
       </c>
       <c r="Q3">
-        <v>139.8887749241156</v>
+        <v>163.3023775108232</v>
       </c>
       <c r="R3">
-        <v>1258.99897431704</v>
+        <v>1469.721397597409</v>
       </c>
       <c r="S3">
-        <v>0.0002524101660381816</v>
+        <v>0.0002766668532124455</v>
       </c>
       <c r="T3">
-        <v>0.0002565750934706386</v>
+        <v>0.0002795548617379062</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>55.26722666666667</v>
+        <v>64.51746766666666</v>
       </c>
       <c r="H4">
-        <v>165.80168</v>
+        <v>193.552403</v>
       </c>
       <c r="I4">
-        <v>0.01597985502890189</v>
+        <v>0.01908790637288361</v>
       </c>
       <c r="J4">
-        <v>0.01623411501809385</v>
+        <v>0.0192326001326142</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>65.03016100000001</v>
+        <v>94.63104</v>
       </c>
       <c r="N4">
-        <v>195.090483</v>
+        <v>283.89312</v>
       </c>
       <c r="O4">
-        <v>0.4058201825561418</v>
+        <v>0.5418976312357076</v>
       </c>
       <c r="P4">
-        <v>0.4060556068101174</v>
+        <v>0.5434348244380536</v>
       </c>
       <c r="Q4">
-        <v>3594.036648156827</v>
+        <v>6105.355063463039</v>
       </c>
       <c r="R4">
-        <v>32346.32983341144</v>
+        <v>54948.19557116735</v>
       </c>
       <c r="S4">
-        <v>0.006484947685049647</v>
+        <v>0.0103436912487146</v>
       </c>
       <c r="T4">
-        <v>0.006591953424697337</v>
+        <v>0.01045166467655448</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>55.26722666666667</v>
+        <v>64.51746766666666</v>
       </c>
       <c r="H5">
-        <v>165.80168</v>
+        <v>193.552403</v>
       </c>
       <c r="I5">
-        <v>0.01597985502890189</v>
+        <v>0.01908790637288361</v>
       </c>
       <c r="J5">
-        <v>0.01623411501809385</v>
+        <v>0.0192326001326142</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.27872</v>
+        <v>1.481899</v>
       </c>
       <c r="N5">
-        <v>0.5574399999999999</v>
+        <v>2.963798</v>
       </c>
       <c r="O5">
-        <v>0.001739349857707531</v>
+        <v>0.00848598470259403</v>
       </c>
       <c r="P5">
-        <v>0.001160239259135115</v>
+        <v>0.005673371182083786</v>
       </c>
       <c r="Q5">
-        <v>15.40408141653333</v>
+        <v>95.60837081776566</v>
       </c>
       <c r="R5">
-        <v>92.4244884992</v>
+        <v>573.650224906594</v>
       </c>
       <c r="S5">
-        <v>2.779455857070748E-05</v>
+        <v>0.0001619796814848374</v>
       </c>
       <c r="T5">
-        <v>1.883545758130745E-05</v>
+        <v>0.0001091136793489142</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>55.26722666666667</v>
+        <v>64.51746766666666</v>
       </c>
       <c r="H6">
-        <v>165.80168</v>
+        <v>193.552403</v>
       </c>
       <c r="I6">
-        <v>0.01597985502890189</v>
+        <v>0.01908790637288361</v>
       </c>
       <c r="J6">
-        <v>0.01623411501809385</v>
+        <v>0.0192326001326142</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>91.48438500000002</v>
+        <v>73.43827566666666</v>
       </c>
       <c r="N6">
-        <v>274.453155</v>
+        <v>220.314827</v>
       </c>
       <c r="O6">
-        <v>0.5709075489100568</v>
+        <v>0.420538838269151</v>
       </c>
       <c r="P6">
-        <v>0.5712387435858478</v>
+        <v>0.4217317747321426</v>
       </c>
       <c r="Q6">
-        <v>5056.088242255601</v>
+        <v>4738.051575819919</v>
       </c>
       <c r="R6">
-        <v>45504.79418030041</v>
+        <v>42642.46418237927</v>
       </c>
       <c r="S6">
-        <v>0.009123019866488424</v>
+        <v>0.008027205971042799</v>
       </c>
       <c r="T6">
-        <v>0.009273555466164074</v>
+        <v>0.008110998586641025</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>9693.510254000001</v>
       </c>
       <c r="I7">
-        <v>0.93425403518284</v>
+        <v>0.9559623816860557</v>
       </c>
       <c r="J7">
-        <v>0.9491192151521513</v>
+        <v>0.9632089486203771</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.919382</v>
+        <v>2.546648333333333</v>
       </c>
       <c r="N7">
-        <v>2.758146</v>
+        <v>7.639944999999999</v>
       </c>
       <c r="O7">
-        <v>0.005737395776689386</v>
+        <v>0.01458319278139283</v>
       </c>
       <c r="P7">
-        <v>0.005740724152602041</v>
+        <v>0.01462456071422719</v>
       </c>
       <c r="Q7">
-        <v>2970.67961478101</v>
+        <v>8228.653910832893</v>
       </c>
       <c r="R7">
-        <v>26736.11653302909</v>
+        <v>74057.88519749603</v>
       </c>
       <c r="S7">
-        <v>0.005360185155813043</v>
+        <v>0.01394098370388718</v>
       </c>
       <c r="T7">
-        <v>0.005448631602122648</v>
+        <v>0.01408650774958564</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>9693.510254000001</v>
       </c>
       <c r="I8">
-        <v>0.93425403518284</v>
+        <v>0.9559623816860557</v>
       </c>
       <c r="J8">
-        <v>0.9491192151521513</v>
+        <v>0.9632089486203771</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>7.593403</v>
       </c>
       <c r="O8">
-        <v>0.01579552289940435</v>
+        <v>0.01449435301115475</v>
       </c>
       <c r="P8">
-        <v>0.01580468619229758</v>
+        <v>0.01453546893349296</v>
       </c>
       <c r="Q8">
         <v>8178.525538139374</v>
@@ -948,10 +948,10 @@
         <v>73606.72984325438</v>
       </c>
       <c r="S8">
-        <v>0.01475703100659147</v>
+        <v>0.01385605622554194</v>
       </c>
       <c r="T8">
-        <v>0.01500053135455952</v>
+        <v>0.01400069374913391</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>9693.510254000001</v>
       </c>
       <c r="I9">
-        <v>0.93425403518284</v>
+        <v>0.9559623816860557</v>
       </c>
       <c r="J9">
-        <v>0.9491192151521513</v>
+        <v>0.9632089486203771</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.03016100000001</v>
+        <v>94.63104</v>
       </c>
       <c r="N9">
-        <v>195.090483</v>
+        <v>283.89312</v>
       </c>
       <c r="O9">
-        <v>0.4058201825561418</v>
+        <v>0.5418976312357076</v>
       </c>
       <c r="P9">
-        <v>0.4060556068101174</v>
+        <v>0.5434348244380536</v>
       </c>
       <c r="Q9">
-        <v>210123.510824257</v>
+        <v>305768.9855288947</v>
       </c>
       <c r="R9">
-        <v>1891111.597418313</v>
+        <v>2751920.869760053</v>
       </c>
       <c r="S9">
-        <v>0.3791391431117123</v>
+        <v>0.518033750186119</v>
       </c>
       <c r="T9">
-        <v>0.3853951788437491</v>
+        <v>0.5234412858906768</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>9693.510254000001</v>
       </c>
       <c r="I10">
-        <v>0.93425403518284</v>
+        <v>0.9559623816860557</v>
       </c>
       <c r="J10">
-        <v>0.9491192151521513</v>
+        <v>0.9632089486203771</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.27872</v>
+        <v>1.481899</v>
       </c>
       <c r="N10">
-        <v>0.5574399999999999</v>
+        <v>2.963798</v>
       </c>
       <c r="O10">
-        <v>0.001739349857707531</v>
+        <v>0.00848598470259403</v>
       </c>
       <c r="P10">
-        <v>0.001160239259135115</v>
+        <v>0.005673371182083786</v>
       </c>
       <c r="Q10">
-        <v>900.5917259982932</v>
+        <v>4788.267717297449</v>
       </c>
       <c r="R10">
-        <v>5403.55035598976</v>
+        <v>28729.60630378469</v>
       </c>
       <c r="S10">
-        <v>0.001624994623157959</v>
+        <v>0.008112282147243225</v>
       </c>
       <c r="T10">
-        <v>0.001101205375019034</v>
+        <v>0.005464641891428069</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>9693.510254000001</v>
       </c>
       <c r="I11">
-        <v>0.93425403518284</v>
+        <v>0.9559623816860557</v>
       </c>
       <c r="J11">
-        <v>0.9491192151521513</v>
+        <v>0.9632089486203771</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>91.48438500000002</v>
+        <v>73.43827566666666</v>
       </c>
       <c r="N11">
-        <v>274.453155</v>
+        <v>220.314827</v>
       </c>
       <c r="O11">
-        <v>0.5709075489100568</v>
+        <v>0.420538838269151</v>
       </c>
       <c r="P11">
-        <v>0.5712387435858478</v>
+        <v>0.4217317747321426</v>
       </c>
       <c r="Q11">
-        <v>295601.608026128</v>
+        <v>237291.5594036373</v>
       </c>
       <c r="R11">
-        <v>2660414.472235152</v>
+        <v>2135624.034632736</v>
       </c>
       <c r="S11">
-        <v>0.5333726812855651</v>
+        <v>0.4020193094232646</v>
       </c>
       <c r="T11">
-        <v>0.5421736679767009</v>
+        <v>0.4062158193395528</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.924789</v>
+        <v>4.815307333333333</v>
       </c>
       <c r="H12">
-        <v>17.774367</v>
+        <v>14.445922</v>
       </c>
       <c r="I12">
-        <v>0.001713081603820286</v>
+        <v>0.001424639541189161</v>
       </c>
       <c r="J12">
-        <v>0.001740338929326963</v>
+        <v>0.001435438863411757</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.919382</v>
+        <v>2.546648333333333</v>
       </c>
       <c r="N12">
-        <v>2.758146</v>
+        <v>7.639944999999999</v>
       </c>
       <c r="O12">
-        <v>0.005737395776689386</v>
+        <v>0.01458319278139283</v>
       </c>
       <c r="P12">
-        <v>0.005740724152602041</v>
+        <v>0.01462456071422719</v>
       </c>
       <c r="Q12">
-        <v>5.447144360398</v>
+        <v>12.26289439492111</v>
       </c>
       <c r="R12">
-        <v>49.02429924358199</v>
+        <v>110.36604955429</v>
       </c>
       <c r="S12">
-        <v>9.828627158882789E-06</v>
+        <v>2.077579307315656E-05</v>
       </c>
       <c r="T12">
-        <v>9.990805725300872E-06</v>
+        <v>2.099266280952651E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.924789</v>
+        <v>4.815307333333333</v>
       </c>
       <c r="H13">
-        <v>17.774367</v>
+        <v>14.445922</v>
       </c>
       <c r="I13">
-        <v>0.001713081603820286</v>
+        <v>0.001424639541189161</v>
       </c>
       <c r="J13">
-        <v>0.001740338929326963</v>
+        <v>0.001435438863411757</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>7.593403</v>
       </c>
       <c r="O13">
-        <v>0.01579552289940435</v>
+        <v>0.01449435301115475</v>
       </c>
       <c r="P13">
-        <v>0.01580468619229758</v>
+        <v>0.01453546893349296</v>
       </c>
       <c r="Q13">
-        <v>14.99643685565567</v>
+        <v>12.18818971695178</v>
       </c>
       <c r="R13">
-        <v>134.967931700901</v>
+        <v>109.693707452566</v>
       </c>
       <c r="S13">
-        <v>2.705901970169166E-05</v>
+        <v>2.064922842364523E-05</v>
       </c>
       <c r="T13">
-        <v>2.75055106462518E-05</v>
+        <v>2.086477700505004E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.924789</v>
+        <v>4.815307333333333</v>
       </c>
       <c r="H14">
-        <v>17.774367</v>
+        <v>14.445922</v>
       </c>
       <c r="I14">
-        <v>0.001713081603820286</v>
+        <v>0.001424639541189161</v>
       </c>
       <c r="J14">
-        <v>0.001740338929326963</v>
+        <v>0.001435438863411757</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>65.03016100000001</v>
+        <v>94.63104</v>
       </c>
       <c r="N14">
-        <v>195.090483</v>
+        <v>283.89312</v>
       </c>
       <c r="O14">
-        <v>0.4058201825561418</v>
+        <v>0.5418976312357076</v>
       </c>
       <c r="P14">
-        <v>0.4060556068101174</v>
+        <v>0.5434348244380536</v>
       </c>
       <c r="Q14">
-        <v>385.289982561029</v>
+        <v>455.67754087296</v>
       </c>
       <c r="R14">
-        <v>3467.609843049261</v>
+        <v>4101.09786785664</v>
       </c>
       <c r="S14">
-        <v>0.0006952030891959167</v>
+        <v>0.0007720087927351316</v>
       </c>
       <c r="T14">
-        <v>0.0007066743800031298</v>
+        <v>0.0007800674667297274</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.924789</v>
+        <v>4.815307333333333</v>
       </c>
       <c r="H15">
-        <v>17.774367</v>
+        <v>14.445922</v>
       </c>
       <c r="I15">
-        <v>0.001713081603820286</v>
+        <v>0.001424639541189161</v>
       </c>
       <c r="J15">
-        <v>0.001740338929326963</v>
+        <v>0.001435438863411757</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.27872</v>
+        <v>1.481899</v>
       </c>
       <c r="N15">
-        <v>0.5574399999999999</v>
+        <v>2.963798</v>
       </c>
       <c r="O15">
-        <v>0.001739349857707531</v>
+        <v>0.00848598470259403</v>
       </c>
       <c r="P15">
-        <v>0.001160239259135115</v>
+        <v>0.005673371182083786</v>
       </c>
       <c r="Q15">
-        <v>1.65135719008</v>
+        <v>7.135799121959334</v>
       </c>
       <c r="R15">
-        <v>9.908143140479998</v>
+        <v>42.814794731756</v>
       </c>
       <c r="S15">
-        <v>2.979648243846203E-06</v>
+        <v>1.20894693532418E-05</v>
       </c>
       <c r="T15">
-        <v>2.019209550006315E-06</v>
+        <v>8.143777481323367E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.924789</v>
+        <v>4.815307333333333</v>
       </c>
       <c r="H16">
-        <v>17.774367</v>
+        <v>14.445922</v>
       </c>
       <c r="I16">
-        <v>0.001713081603820286</v>
+        <v>0.001424639541189161</v>
       </c>
       <c r="J16">
-        <v>0.001740338929326963</v>
+        <v>0.001435438863411757</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>91.48438500000002</v>
+        <v>73.43827566666666</v>
       </c>
       <c r="N16">
-        <v>274.453155</v>
+        <v>220.314827</v>
       </c>
       <c r="O16">
-        <v>0.5709075489100568</v>
+        <v>0.420538838269151</v>
       </c>
       <c r="P16">
-        <v>0.5712387435858478</v>
+        <v>0.4217317747321426</v>
       </c>
       <c r="Q16">
-        <v>542.025677919765</v>
+        <v>353.6278673650548</v>
       </c>
       <c r="R16">
-        <v>4878.231101277886</v>
+        <v>3182.650806285494</v>
       </c>
       <c r="S16">
-        <v>0.0009780112195199484</v>
+        <v>0.0005991162576039861</v>
       </c>
       <c r="T16">
-        <v>0.0009941490234022738</v>
+        <v>0.0006053701793861299</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>162.5045395</v>
+        <v>76.28726950000001</v>
       </c>
       <c r="H17">
-        <v>325.009079</v>
+        <v>152.574539</v>
       </c>
       <c r="I17">
-        <v>0.04698623649799799</v>
+        <v>0.02257007769093324</v>
       </c>
       <c r="J17">
-        <v>0.03182256518999536</v>
+        <v>0.01516077844306046</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.919382</v>
+        <v>2.546648333333333</v>
       </c>
       <c r="N17">
-        <v>2.758146</v>
+        <v>7.639944999999999</v>
       </c>
       <c r="O17">
-        <v>0.005737395776689386</v>
+        <v>0.01458319278139283</v>
       </c>
       <c r="P17">
-        <v>0.005740724152602041</v>
+        <v>0.01462456071422719</v>
       </c>
       <c r="Q17">
-        <v>149.403748534589</v>
+        <v>194.2768477267258</v>
       </c>
       <c r="R17">
-        <v>896.422491207534</v>
+        <v>1165.661086360355</v>
       </c>
       <c r="S17">
-        <v>0.0002695786348461424</v>
+        <v>0.0003291437940578929</v>
       </c>
       <c r="T17">
-        <v>0.0001826845685839593</v>
+        <v>0.0002217197248154844</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>162.5045395</v>
+        <v>76.28726950000001</v>
       </c>
       <c r="H18">
-        <v>325.009079</v>
+        <v>152.574539</v>
       </c>
       <c r="I18">
-        <v>0.04698623649799799</v>
+        <v>0.02257007769093324</v>
       </c>
       <c r="J18">
-        <v>0.03182256518999536</v>
+        <v>0.01516077844306046</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>7.593403</v>
       </c>
       <c r="O18">
-        <v>0.01579552289940435</v>
+        <v>0.01449435301115475</v>
       </c>
       <c r="P18">
-        <v>0.01580468619229758</v>
+        <v>0.01453546893349296</v>
       </c>
       <c r="Q18">
-        <v>411.3208192509729</v>
+        <v>193.0933270277029</v>
       </c>
       <c r="R18">
-        <v>2467.924915505837</v>
+        <v>1158.559962166217</v>
       </c>
       <c r="S18">
-        <v>0.0007421721745609558</v>
+        <v>0.0003271386735415748</v>
       </c>
       <c r="T18">
-        <v>0.0005029456566618092</v>
+        <v>0.0002203690240666751</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>162.5045395</v>
+        <v>76.28726950000001</v>
       </c>
       <c r="H19">
-        <v>325.009079</v>
+        <v>152.574539</v>
       </c>
       <c r="I19">
-        <v>0.04698623649799799</v>
+        <v>0.02257007769093324</v>
       </c>
       <c r="J19">
-        <v>0.03182256518999536</v>
+        <v>0.01516077844306046</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>65.03016100000001</v>
+        <v>94.63104</v>
       </c>
       <c r="N19">
-        <v>195.090483</v>
+        <v>283.89312</v>
       </c>
       <c r="O19">
-        <v>0.4058201825561418</v>
+        <v>0.5418976312357076</v>
       </c>
       <c r="P19">
-        <v>0.4060556068101174</v>
+        <v>0.5434348244380536</v>
       </c>
       <c r="Q19">
-        <v>10567.69636691586</v>
+        <v>7219.143651545281</v>
       </c>
       <c r="R19">
-        <v>63406.17820149515</v>
+        <v>43314.86190927168</v>
       </c>
       <c r="S19">
-        <v>0.0190679630732436</v>
+        <v>0.01223067163752261</v>
       </c>
       <c r="T19">
-        <v>0.01292173101847808</v>
+        <v>0.008238894971548788</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>162.5045395</v>
+        <v>76.28726950000001</v>
       </c>
       <c r="H20">
-        <v>325.009079</v>
+        <v>152.574539</v>
       </c>
       <c r="I20">
-        <v>0.04698623649799799</v>
+        <v>0.02257007769093324</v>
       </c>
       <c r="J20">
-        <v>0.03182256518999536</v>
+        <v>0.01516077844306046</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.27872</v>
+        <v>1.481899</v>
       </c>
       <c r="N20">
-        <v>0.5574399999999999</v>
+        <v>2.963798</v>
       </c>
       <c r="O20">
-        <v>0.001739349857707531</v>
+        <v>0.00848598470259403</v>
       </c>
       <c r="P20">
-        <v>0.001160239259135115</v>
+        <v>0.005673371182083786</v>
       </c>
       <c r="Q20">
-        <v>45.29326524943999</v>
+        <v>113.0500283847805</v>
       </c>
       <c r="R20">
-        <v>181.17306099776</v>
+        <v>452.2001135391221</v>
       </c>
       <c r="S20">
-        <v>8.17255037670052E-05</v>
+        <v>0.0001915293340216183</v>
       </c>
       <c r="T20">
-        <v>3.692178945981912E-05</v>
+        <v>8.601272351681631E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>162.5045395</v>
+        <v>76.28726950000001</v>
       </c>
       <c r="H21">
-        <v>325.009079</v>
+        <v>152.574539</v>
       </c>
       <c r="I21">
-        <v>0.04698623649799799</v>
+        <v>0.02257007769093324</v>
       </c>
       <c r="J21">
-        <v>0.03182256518999536</v>
+        <v>0.01516077844306046</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>91.48438500000002</v>
+        <v>73.43827566666666</v>
       </c>
       <c r="N21">
-        <v>274.453155</v>
+        <v>220.314827</v>
       </c>
       <c r="O21">
-        <v>0.5709075489100568</v>
+        <v>0.420538838269151</v>
       </c>
       <c r="P21">
-        <v>0.5712387435858478</v>
+        <v>0.4217317747321426</v>
       </c>
       <c r="Q21">
-        <v>14866.62785586571</v>
+        <v>5602.405527398292</v>
       </c>
       <c r="R21">
-        <v>89199.76713519426</v>
+        <v>33614.43316438975</v>
       </c>
       <c r="S21">
-        <v>0.02682479711158028</v>
+        <v>0.009491594251789548</v>
       </c>
       <c r="T21">
-        <v>0.01817828215681168</v>
+        <v>0.006393781999112697</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>3.689559</v>
+        <v>3.227899333333333</v>
       </c>
       <c r="H22">
-        <v>11.068677</v>
+        <v>9.683698</v>
       </c>
       <c r="I22">
-        <v>0.001066791686439732</v>
+        <v>0.0009549947089382317</v>
       </c>
       <c r="J22">
-        <v>0.001083765710432669</v>
+        <v>0.0009622339405364853</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.919382</v>
+        <v>2.546648333333333</v>
       </c>
       <c r="N22">
-        <v>2.758146</v>
+        <v>7.639944999999999</v>
       </c>
       <c r="O22">
-        <v>0.005737395776689386</v>
+        <v>0.01458319278139283</v>
       </c>
       <c r="P22">
-        <v>0.005740724152602041</v>
+        <v>0.01462456071422719</v>
       </c>
       <c r="Q22">
-        <v>3.392114132538</v>
+        <v>8.220324457401111</v>
       </c>
       <c r="R22">
-        <v>30.529027192842</v>
+        <v>73.98292011660999</v>
       </c>
       <c r="S22">
-        <v>6.120606116386665E-06</v>
+        <v>1.392687194565636E-05</v>
       </c>
       <c r="T22">
-        <v>6.221599989642731E-06</v>
+        <v>1.40722486846659E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>3.689559</v>
+        <v>3.227899333333333</v>
       </c>
       <c r="H23">
-        <v>11.068677</v>
+        <v>9.683698</v>
       </c>
       <c r="I23">
-        <v>0.001066791686439732</v>
+        <v>0.0009549947089382317</v>
       </c>
       <c r="J23">
-        <v>0.001083765710432669</v>
+        <v>0.0009622339405364853</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>7.593403</v>
       </c>
       <c r="O23">
-        <v>0.01579552289940435</v>
+        <v>0.01449435301115475</v>
       </c>
       <c r="P23">
-        <v>0.01580468619229758</v>
+        <v>0.01453546893349296</v>
       </c>
       <c r="Q23">
-        <v>9.338769459759002</v>
+        <v>8.170246827143778</v>
       </c>
       <c r="R23">
-        <v>84.04892513783101</v>
+        <v>73.532221444294</v>
       </c>
       <c r="S23">
-        <v>1.685053251205297E-05</v>
+        <v>1.384203043513571E-05</v>
       </c>
       <c r="T23">
-        <v>1.712857695936077E-05</v>
+        <v>1.39865215494206E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>3.689559</v>
+        <v>3.227899333333333</v>
       </c>
       <c r="H24">
-        <v>11.068677</v>
+        <v>9.683698</v>
       </c>
       <c r="I24">
-        <v>0.001066791686439732</v>
+        <v>0.0009549947089382317</v>
       </c>
       <c r="J24">
-        <v>0.001083765710432669</v>
+        <v>0.0009622339405364853</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>65.03016100000001</v>
+        <v>94.63104</v>
       </c>
       <c r="N24">
-        <v>195.090483</v>
+        <v>283.89312</v>
       </c>
       <c r="O24">
-        <v>0.4058201825561418</v>
+        <v>0.5418976312357076</v>
       </c>
       <c r="P24">
-        <v>0.4060556068101174</v>
+        <v>0.5434348244380536</v>
       </c>
       <c r="Q24">
-        <v>239.932615788999</v>
+        <v>305.45947092864</v>
       </c>
       <c r="R24">
-        <v>2159.393542100991</v>
+        <v>2749.13523835776</v>
       </c>
       <c r="S24">
-        <v>0.0004329255969403463</v>
+        <v>0.0005175093706162617</v>
       </c>
       <c r="T24">
-        <v>0.0004400691431897352</v>
+        <v>0.0005229114325437814</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>3.689559</v>
+        <v>3.227899333333333</v>
       </c>
       <c r="H25">
-        <v>11.068677</v>
+        <v>9.683698</v>
       </c>
       <c r="I25">
-        <v>0.001066791686439732</v>
+        <v>0.0009549947089382317</v>
       </c>
       <c r="J25">
-        <v>0.001083765710432669</v>
+        <v>0.0009622339405364853</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.27872</v>
+        <v>1.481899</v>
       </c>
       <c r="N25">
-        <v>0.5574399999999999</v>
+        <v>2.963798</v>
       </c>
       <c r="O25">
-        <v>0.001739349857707531</v>
+        <v>0.00848598470259403</v>
       </c>
       <c r="P25">
-        <v>0.001160239259135115</v>
+        <v>0.005673371182083786</v>
       </c>
       <c r="Q25">
-        <v>1.02835388448</v>
+        <v>4.783420794167333</v>
       </c>
       <c r="R25">
-        <v>6.17012330688</v>
+        <v>28.700524765004</v>
       </c>
       <c r="S25">
-        <v>1.855523968012524E-06</v>
+        <v>8.104070491108072E-06</v>
       </c>
       <c r="T25">
-        <v>1.257427524948441E-06</v>
+        <v>5.45911030866262E-06</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>3.689559</v>
+        <v>3.227899333333333</v>
       </c>
       <c r="H26">
-        <v>11.068677</v>
+        <v>9.683698</v>
       </c>
       <c r="I26">
-        <v>0.001066791686439732</v>
+        <v>0.0009549947089382317</v>
       </c>
       <c r="J26">
-        <v>0.001083765710432669</v>
+        <v>0.0009622339405364853</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>91.48438500000002</v>
+        <v>73.43827566666666</v>
       </c>
       <c r="N26">
-        <v>274.453155</v>
+        <v>220.314827</v>
       </c>
       <c r="O26">
-        <v>0.5709075489100568</v>
+        <v>0.420538838269151</v>
       </c>
       <c r="P26">
-        <v>0.5712387435858478</v>
+        <v>0.4217317747321426</v>
       </c>
       <c r="Q26">
-        <v>337.5370360362151</v>
+        <v>237.0513610655829</v>
       </c>
       <c r="R26">
-        <v>3037.833324325936</v>
+        <v>2133.462249590246</v>
       </c>
       <c r="S26">
-        <v>0.0006090394269029332</v>
+        <v>0.00040161236545007</v>
       </c>
       <c r="T26">
-        <v>0.0006190889627689814</v>
+        <v>0.0004058046274499549</v>
       </c>
     </row>
   </sheetData>
